--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Лист3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Y$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Z$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="96">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Average_Fetch</t>
+  </si>
+  <si>
+    <t>Fetch</t>
   </si>
   <si>
     <t>Salinity</t>
@@ -318,11 +321,11 @@
     <numFmt numFmtId="181" formatCode="dd\.mmm"/>
     <numFmt numFmtId="182" formatCode="#.00000\ ##0"/>
     <numFmt numFmtId="183" formatCode="#.\ #0"/>
-    <numFmt numFmtId="184" formatCode="#.\ ##0"/>
-    <numFmt numFmtId="185" formatCode="#.\ 0"/>
-    <numFmt numFmtId="186" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="#.\ ##0"/>
+    <numFmt numFmtId="186" formatCode="#.\ 0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,13 +501,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -963,7 +959,7 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -993,6 +989,15 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1002,15 +1007,6 @@
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1020,20 +1016,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1568,11 +1564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y45"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R45"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1580,15 +1576,15 @@
     <col min="1" max="2" width="14.1111111111111" style="3" customWidth="1"/>
     <col min="3" max="4" width="10.6666666666667" style="3"/>
     <col min="5" max="5" width="13.5555555555556" style="3" customWidth="1"/>
-    <col min="6" max="12" width="14" style="3" customWidth="1"/>
-    <col min="13" max="14" width="8.88888888888889" style="3"/>
-    <col min="15" max="15" width="12.2222222222222" style="3" customWidth="1"/>
-    <col min="16" max="22" width="8.88888888888889" style="3"/>
-    <col min="23" max="23" width="12.8888888888889" style="3"/>
-    <col min="24" max="16384" width="8.88888888888889" style="3"/>
+    <col min="6" max="13" width="14" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8.88888888888889" style="3"/>
+    <col min="16" max="16" width="12.2222222222222" style="3" customWidth="1"/>
+    <col min="17" max="23" width="8.88888888888889" style="3"/>
+    <col min="24" max="24" width="12.8888888888889" style="3"/>
+    <col min="25" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:25">
+    <row r="1" ht="28.8" spans="1:26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1622,28 +1618,28 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1655,22 +1651,25 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7">
         <v>69.186008</v>
@@ -1687,38 +1686,38 @@
       <c r="G2" s="8">
         <v>0.473764956273301</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
+        <v>0.473764956273301</v>
+      </c>
+      <c r="I2" s="12">
         <v>19</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="12">
         <v>14.9</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="12">
         <v>22</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="13">
         <v>0.547463655488478</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7">
         <v>2009</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="P2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7">
         <v>2</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="R2" s="7">
         <v>250</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>31</v>
@@ -1726,28 +1725,31 @@
       <c r="T2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="7">
         <v>0</v>
       </c>
-      <c r="V2" s="7">
+      <c r="W2" s="7">
         <v>4</v>
       </c>
-      <c r="W2" s="7">
+      <c r="X2" s="7">
         <v>21</v>
       </c>
-      <c r="X2" s="19">
+      <c r="Y2" s="18">
         <v>0.81</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Z2" s="18">
         <v>0.592183685</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7">
         <v>69.185968</v>
@@ -1764,38 +1766,38 @@
       <c r="G3" s="8">
         <v>0.475650473096954</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
+        <v>0.475650473096954</v>
+      </c>
+      <c r="I3" s="12">
         <v>17.4</v>
       </c>
-      <c r="I3" s="9">
+      <c r="J3" s="12">
         <v>10.6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="12">
         <v>22</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="13">
         <v>0.546352425511874</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7">
         <v>2009</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="P3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="7">
         <v>1.5</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="7">
         <v>250</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>31</v>
@@ -1803,28 +1805,31 @@
       <c r="T3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="7">
         <v>0</v>
       </c>
-      <c r="V3" s="7">
+      <c r="W3" s="7">
         <v>4</v>
       </c>
-      <c r="W3" s="7">
+      <c r="X3" s="7">
         <v>235.7</v>
       </c>
-      <c r="X3" s="19">
+      <c r="Y3" s="18">
         <v>0.81</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Z3" s="18">
         <v>0.592183685</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7">
         <v>69.185926</v>
@@ -1841,38 +1846,38 @@
       <c r="G4" s="8">
         <v>0.478451735096918</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
+        <v>0.478451735096918</v>
+      </c>
+      <c r="I4" s="12">
         <v>17.4</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="12">
         <v>6.6</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="12">
         <v>22</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="13">
         <v>0.543979141533625</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7">
         <v>2009</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="P4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="7">
         <v>1</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="7">
         <v>250</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>31</v>
@@ -1880,28 +1885,31 @@
       <c r="T4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="7">
         <v>0</v>
       </c>
-      <c r="V4" s="7">
+      <c r="W4" s="7">
         <v>4</v>
       </c>
-      <c r="W4" s="7">
+      <c r="X4" s="7">
         <v>210</v>
       </c>
-      <c r="X4" s="19">
+      <c r="Y4" s="18">
         <v>0.571428571</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Z4" s="18">
         <v>0.397884934</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" hidden="1" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7">
         <v>69.185832</v>
@@ -1918,67 +1926,70 @@
       <c r="G5" s="8">
         <v>0.485981473277983</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
+        <v>0.485981473277983</v>
+      </c>
+      <c r="I5" s="12">
         <v>17.4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="12">
         <v>2.6</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="12">
         <v>22</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="13">
         <v>0.537686005284502</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7">
         <v>2009</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="P5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <v>250</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="7">
+        <v>32</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="7">
         <v>0</v>
       </c>
-      <c r="V5" s="7">
+      <c r="W5" s="7">
         <v>3</v>
       </c>
-      <c r="W5" s="7">
+      <c r="X5" s="7">
         <v>2820</v>
       </c>
-      <c r="X5" s="19">
+      <c r="Y5" s="18">
         <v>0.488372093</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Z5" s="18">
         <v>0.334395307</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" hidden="1" spans="1:26">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7">
         <v>69.185808</v>
@@ -1995,67 +2006,70 @@
       <c r="G6" s="8">
         <v>0.390528158864358</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
+        <v>0.390528158864358</v>
+      </c>
+      <c r="I6" s="12">
         <v>17.4</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="12">
         <v>2.6</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K6" s="12">
         <v>22</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="13">
         <v>0.53150916847992</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="7">
         <v>2009</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="P6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>250</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="7">
+        <v>32</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="7">
         <v>0</v>
       </c>
-      <c r="V6" s="7">
+      <c r="W6" s="7">
         <v>1</v>
       </c>
-      <c r="W6" s="7">
+      <c r="X6" s="7">
         <v>6037.3</v>
       </c>
-      <c r="X6" s="19">
+      <c r="Y6" s="18">
         <v>0.347107438</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Z6" s="18">
         <v>0.239659817</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" hidden="1" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>69.181948</v>
@@ -2072,67 +2086,70 @@
       <c r="G7" s="8">
         <v>0.358507791689224</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
+        <v>0.358507791689224</v>
+      </c>
+      <c r="I7" s="12">
         <v>17.4</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J7" s="12">
         <v>15.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="K7" s="12">
         <v>22</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="13">
         <v>0.908977562927479</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="M7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="7">
         <v>2009</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="P7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>420</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="7">
+        <v>32</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="7">
         <v>0</v>
       </c>
-      <c r="V7" s="7">
+      <c r="W7" s="7">
         <v>3</v>
       </c>
-      <c r="W7" s="19">
+      <c r="X7" s="18">
         <v>46.66666667</v>
       </c>
-      <c r="X7" s="19">
+      <c r="Y7" s="18">
         <v>0.476190476</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Z7" s="18">
         <v>0.325508296</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" hidden="1" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
         <v>69.184817</v>
@@ -2149,67 +2166,70 @@
       <c r="G8" s="8">
         <v>0.461053565005614</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
+        <v>0.461053565005614</v>
+      </c>
+      <c r="I8" s="12">
         <v>17.4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="12">
         <v>11.3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="12">
         <v>22</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="13">
         <v>0.582326718193306</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="M8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="7">
         <v>2009</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="P8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="7">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>420</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U8" s="7">
+        <v>32</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="7">
         <v>0</v>
       </c>
-      <c r="V8" s="7">
+      <c r="W8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="7">
+      <c r="X8" s="7">
         <v>186</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="18">
         <v>0.45</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="18">
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>69.185263</v>
@@ -2226,38 +2246,38 @@
       <c r="G9" s="8">
         <v>0.437153219908005</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
+        <v>0.437153219908005</v>
+      </c>
+      <c r="I9" s="12">
         <v>17.4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="J9" s="12">
         <v>7.5</v>
       </c>
-      <c r="J9" s="9">
+      <c r="K9" s="12">
         <v>22</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="13">
         <v>0.533248653327106</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="7">
         <v>2009</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7">
         <v>1</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>420</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>31</v>
@@ -2265,28 +2285,31 @@
       <c r="T9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="7">
         <v>0</v>
       </c>
-      <c r="V9" s="7">
+      <c r="W9" s="7">
         <v>4</v>
       </c>
-      <c r="W9" s="7">
+      <c r="X9" s="7">
         <v>140</v>
       </c>
-      <c r="X9" s="19">
+      <c r="Y9" s="18">
         <v>0.45</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Z9" s="18">
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" hidden="1" spans="1:26">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>69.185351</v>
@@ -2303,67 +2326,70 @@
       <c r="G10" s="8">
         <v>0.432087949216916</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
+        <v>0.432087949216916</v>
+      </c>
+      <c r="I10" s="12">
         <v>17.4</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="12">
         <v>3.7</v>
       </c>
-      <c r="J10" s="9">
+      <c r="K10" s="12">
         <v>22</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="13">
         <v>0.528530434302476</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="7">
         <v>2009</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="P10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <v>420</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="7">
+        <v>32</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="7">
         <v>0</v>
       </c>
-      <c r="V10" s="7">
+      <c r="W10" s="7">
         <v>3</v>
       </c>
-      <c r="W10" s="7">
+      <c r="X10" s="7">
         <v>2870</v>
       </c>
-      <c r="X10" s="19">
+      <c r="Y10" s="18">
         <v>0.23943662</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Z10" s="18">
         <v>0.180959667</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" hidden="1" spans="1:26">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7">
         <v>69.185572</v>
@@ -2380,67 +2406,70 @@
       <c r="G11" s="8">
         <v>0.400147219819397</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
+        <v>0.400147219819397</v>
+      </c>
+      <c r="I11" s="12">
         <v>17.4</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="12">
         <v>3.7</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="12">
         <v>22</v>
       </c>
-      <c r="K11" s="15">
+      <c r="L11" s="13">
         <v>0.536812186062027</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="M11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="7">
         <v>2009</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="7">
         <v>420</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U11" s="7">
+        <v>32</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="7">
         <v>0</v>
       </c>
-      <c r="V11" s="7">
+      <c r="W11" s="7">
         <v>1</v>
       </c>
-      <c r="W11" s="7">
+      <c r="X11" s="7">
         <v>6357.3</v>
       </c>
-      <c r="X11" s="19">
+      <c r="Y11" s="18">
         <v>0.054794521</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Z11" s="18">
         <v>0.10724674</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" hidden="1" spans="1:26">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>69.185716</v>
@@ -2457,67 +2486,70 @@
       <c r="G12" s="8">
         <v>0.391435830628047</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
+        <v>0.391435830628047</v>
+      </c>
+      <c r="I12" s="12">
         <v>17.4</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="12">
         <v>3.7</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="12">
         <v>22</v>
       </c>
-      <c r="K12" s="15">
+      <c r="L12" s="13">
         <v>0.527412276880499</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="M12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="7">
         <v>2009</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="P12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="7">
         <v>-1.5</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="7">
         <v>420</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="7">
+        <v>32</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="7">
         <v>0</v>
       </c>
-      <c r="V12" s="7">
+      <c r="W12" s="7">
         <v>1</v>
       </c>
-      <c r="W12" s="7">
+      <c r="X12" s="7">
         <v>6389.3</v>
       </c>
-      <c r="X12" s="19">
+      <c r="Y12" s="18">
         <v>0.0625</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Z12" s="18">
         <v>0.109705774</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7">
         <v>69.195494</v>
@@ -2534,67 +2566,70 @@
       <c r="G13" s="8">
         <v>1.07439720652222</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
+        <v>1.07439720652222</v>
+      </c>
+      <c r="I13" s="14">
         <v>21</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="14">
         <v>19.6</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="12">
         <v>22</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="13">
         <v>1.01139482757429</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="M13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1750</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>4</v>
+      </c>
+      <c r="X13" s="7">
+        <v>420</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0.731058579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>1750</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>4</v>
-      </c>
-      <c r="W13" s="7">
-        <v>420</v>
-      </c>
-      <c r="X13" s="19">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="19">
-        <v>0.731058579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>69.195478</v>
@@ -2611,67 +2646,70 @@
       <c r="G14" s="8">
         <v>1.07549968535867</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
+        <v>1.07549968535867</v>
+      </c>
+      <c r="I14" s="14">
         <v>21</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="14">
         <v>17.1</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="12">
         <v>22</v>
       </c>
-      <c r="K14" s="15">
+      <c r="L14" s="13">
         <v>1.01215707802803</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="M14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1750</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>5</v>
+      </c>
+      <c r="X14" s="7">
+        <v>1430</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>0.754385965</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>0.547227216</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:26">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>1750</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>5</v>
-      </c>
-      <c r="W14" s="7">
-        <v>1430</v>
-      </c>
-      <c r="X14" s="19">
-        <v>0.754385965</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>0.547227216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="7">
         <v>69.195463</v>
@@ -2688,67 +2726,70 @@
       <c r="G15" s="8">
         <v>1.07623670041786</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
+        <v>1.07623670041786</v>
+      </c>
+      <c r="I15" s="14">
         <v>21</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="14">
         <v>14.8</v>
       </c>
-      <c r="J15" s="9">
+      <c r="K15" s="12">
         <v>22</v>
       </c>
-      <c r="K15" s="15">
+      <c r="L15" s="13">
         <v>1.01232859898621</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="M15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1750</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>3</v>
+      </c>
+      <c r="X15" s="7">
+        <v>2820</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0.58974359</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>0.412450051</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:26">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1750</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>3</v>
-      </c>
-      <c r="W15" s="7">
-        <v>2820</v>
-      </c>
-      <c r="X15" s="19">
-        <v>0.58974359</v>
-      </c>
-      <c r="Y15" s="19">
-        <v>0.412450051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>69.195494</v>
@@ -2765,67 +2806,70 @@
       <c r="G16" s="8">
         <v>1.07516586908577</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
+        <v>1.07516586908577</v>
+      </c>
+      <c r="I16" s="14">
         <v>21</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="14">
         <v>12.6</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="12">
         <v>22</v>
       </c>
-      <c r="K16" s="15">
+      <c r="L16" s="13">
         <v>1.01281463679264</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="M16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="7">
         <v>2009</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="P16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="R16" s="7">
         <v>1750</v>
       </c>
-      <c r="R16" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S16" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U16" s="7">
+        <v>50</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="7">
         <v>0</v>
       </c>
-      <c r="V16" s="7">
+      <c r="W16" s="7">
         <v>3</v>
       </c>
-      <c r="W16" s="7">
+      <c r="X16" s="7">
         <v>7220</v>
       </c>
-      <c r="X16" s="19">
+      <c r="Y16" s="18">
         <v>0.666666667</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Z16" s="18">
         <v>0.475020813</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" hidden="1" spans="1:26">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>69.195364</v>
@@ -2842,67 +2886,70 @@
       <c r="G17" s="8">
         <v>1.07720127213717</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
+        <v>1.07720127213717</v>
+      </c>
+      <c r="I17" s="14">
         <v>21</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="14">
         <v>12.6</v>
       </c>
-      <c r="J17" s="9">
+      <c r="K17" s="12">
         <v>22</v>
       </c>
-      <c r="K17" s="15">
+      <c r="L17" s="13">
         <v>1.0062947781684</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="M17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="7">
         <v>2009</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="P17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="R17" s="7">
         <v>1750</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S17" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" s="7">
+        <v>50</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="7">
         <v>1</v>
       </c>
-      <c r="V17" s="7">
+      <c r="W17" s="7">
         <v>3</v>
       </c>
-      <c r="W17" s="7">
+      <c r="X17" s="7">
         <v>608</v>
       </c>
-      <c r="X17" s="19">
+      <c r="Y17" s="18">
         <v>0.842105263</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Z17" s="18">
         <v>0.61749928</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7">
         <v>69.195258</v>
@@ -2919,67 +2966,70 @@
       <c r="G18" s="8">
         <v>1.02186225001428</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
+        <v>1.02186225001428</v>
+      </c>
+      <c r="I18" s="14">
         <v>21</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="14">
         <v>12.6</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="12">
         <v>22</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="13">
         <v>1.0049708150495</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="M18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="7">
         <v>2009</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="7">
+      <c r="P18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="7">
         <v>-1.5</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="R18" s="7">
         <v>1750</v>
       </c>
-      <c r="R18" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S18" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="7">
+        <v>50</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="7">
         <v>1</v>
       </c>
-      <c r="V18" s="7">
+      <c r="W18" s="7">
         <v>4</v>
       </c>
-      <c r="W18" s="19">
+      <c r="X18" s="18">
         <v>1562.666667</v>
       </c>
-      <c r="X18" s="19">
+      <c r="Y18" s="18">
         <v>0.726618705</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Z18" s="18">
         <v>0.524440937</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>69.19525</v>
@@ -2996,67 +3046,70 @@
       <c r="G19" s="8">
         <v>1.02293033790546</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
+        <v>1.02293033790546</v>
+      </c>
+      <c r="I19" s="14">
         <v>21</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="14">
         <v>12.6</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="12">
         <v>22</v>
       </c>
-      <c r="K19" s="15">
+      <c r="L19" s="13">
         <v>1.00751676371237</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="M19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>-3.5</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1750</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
+        <v>5</v>
+      </c>
+      <c r="X19" s="7">
+        <v>192</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0.433333333</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>0.295254302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="7">
-        <v>-3.5</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1750</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7">
-        <v>5</v>
-      </c>
-      <c r="W19" s="7">
-        <v>192</v>
-      </c>
-      <c r="X19" s="19">
-        <v>0.433333333</v>
-      </c>
-      <c r="Y19" s="19">
-        <v>0.295254302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>69.199189</v>
@@ -3073,67 +3126,70 @@
       <c r="G20" s="8">
         <v>1.41365873218134</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
+        <v>1.41365873218134</v>
+      </c>
+      <c r="I20" s="14">
         <v>23</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J20" s="14">
         <v>22.6</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="12">
         <v>22</v>
       </c>
-      <c r="K20" s="15">
+      <c r="L20" s="13">
         <v>1.94381499177705</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="M20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="7">
+        <v>2010</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>2</v>
+      </c>
+      <c r="R20" s="7">
+        <v>2700</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>4</v>
+      </c>
+      <c r="X20" s="18">
+        <v>3266.666667</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>0.584190523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2010</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>2700</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <v>4</v>
-      </c>
-      <c r="W20" s="19">
-        <v>3266.666667</v>
-      </c>
-      <c r="X20" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="Y20" s="19">
-        <v>0.584190523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="7">
         <v>69.199174</v>
@@ -3150,67 +3206,70 @@
       <c r="G21" s="8">
         <v>1.41583522703421</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="8">
+        <v>1.41583522703421</v>
+      </c>
+      <c r="I21" s="14">
         <v>23</v>
       </c>
-      <c r="I21" s="10">
+      <c r="J21" s="14">
         <v>21.3</v>
       </c>
-      <c r="J21" s="9">
+      <c r="K21" s="12">
         <v>22</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="13">
         <v>1.94347922356947</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="M21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2010</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2700</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <v>4</v>
+      </c>
+      <c r="X21" s="7">
+        <v>11233.33333</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>0.584190523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2010</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>2700</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <v>4</v>
-      </c>
-      <c r="W21" s="7">
-        <v>11233.33333</v>
-      </c>
-      <c r="X21" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="Y21" s="19">
-        <v>0.584190523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>69.199147</v>
@@ -3227,67 +3286,70 @@
       <c r="G22" s="8">
         <v>1.86174447818496</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
+        <v>1.86174447818496</v>
+      </c>
+      <c r="I22" s="14">
         <v>23</v>
       </c>
-      <c r="I22" s="10">
+      <c r="J22" s="14">
         <v>20.1</v>
       </c>
-      <c r="J22" s="9">
+      <c r="K22" s="12">
         <v>22</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="13">
         <v>1.94244778454608</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="M22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="7">
+        <v>2010</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+      <c r="R22" s="7">
+        <v>2700</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <v>4</v>
+      </c>
+      <c r="X22" s="18">
+        <v>4733.333333</v>
+      </c>
+      <c r="Y22" s="18">
+        <v>0.633333333</v>
+      </c>
+      <c r="Z22" s="18">
+        <v>0.44769209</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:26">
+      <c r="A23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2010</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>2700</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <v>4</v>
-      </c>
-      <c r="W22" s="19">
-        <v>4733.333333</v>
-      </c>
-      <c r="X22" s="19">
-        <v>0.633333333</v>
-      </c>
-      <c r="Y22" s="19">
-        <v>0.44769209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C23" s="7">
         <v>69.199133</v>
@@ -3304,67 +3366,70 @@
       <c r="G23" s="8">
         <v>1.86319671617191</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
+        <v>1.86319671617191</v>
+      </c>
+      <c r="I23" s="14">
         <v>23</v>
       </c>
-      <c r="I23" s="10">
+      <c r="J23" s="14">
         <v>18.9</v>
       </c>
-      <c r="J23" s="9">
+      <c r="K23" s="12">
         <v>22</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="13">
         <v>1.94055726701817</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="M23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="7">
         <v>2010</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="7">
+      <c r="P23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="R23" s="7">
         <v>2700</v>
       </c>
-      <c r="R23" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S23" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U23" s="7">
+        <v>50</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="7">
         <v>0</v>
       </c>
-      <c r="V23" s="7">
+      <c r="W23" s="7">
         <v>3</v>
       </c>
-      <c r="W23" s="7">
+      <c r="X23" s="7">
         <v>19100</v>
       </c>
-      <c r="X23" s="19">
+      <c r="Y23" s="18">
         <v>0.740740741</v>
       </c>
-      <c r="Y23" s="19">
+      <c r="Z23" s="18">
         <v>0.536048456</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" hidden="1" spans="1:26">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7">
         <v>69.19912</v>
@@ -3381,67 +3446,70 @@
       <c r="G24" s="8">
         <v>1.89128156948747</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
+        <v>1.89128156948747</v>
+      </c>
+      <c r="I24" s="14">
         <v>23</v>
       </c>
-      <c r="I24" s="10">
+      <c r="J24" s="14">
         <v>18.9</v>
       </c>
-      <c r="J24" s="9">
+      <c r="K24" s="12">
         <v>22</v>
       </c>
-      <c r="K24" s="15">
+      <c r="L24" s="13">
         <v>1.94121842309002</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="M24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="7">
         <v>2010</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="7">
+      <c r="P24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="R24" s="7">
         <v>2700</v>
       </c>
-      <c r="R24" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S24" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U24" s="7">
+        <v>61</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="7">
         <v>1</v>
       </c>
-      <c r="V24" s="7">
+      <c r="W24" s="7">
         <v>3</v>
       </c>
-      <c r="W24" s="7">
+      <c r="X24" s="7">
         <v>31433.33333</v>
       </c>
-      <c r="X24" s="19">
+      <c r="Y24" s="18">
         <v>0.909090909</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Z24" s="18">
         <v>0.668187772</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" hidden="1" spans="1:26">
       <c r="A25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>69.199105</v>
@@ -3458,67 +3526,70 @@
       <c r="G25" s="8">
         <v>1.89242886591059</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
+        <v>1.89242886591059</v>
+      </c>
+      <c r="I25" s="14">
         <v>23</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J25" s="14">
         <v>18.9</v>
       </c>
-      <c r="J25" s="9">
+      <c r="K25" s="12">
         <v>22</v>
       </c>
-      <c r="K25" s="15">
+      <c r="L25" s="13">
         <v>1.94146264049796</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="M25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2010</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>-1.5</v>
+      </c>
+      <c r="R25" s="7">
+        <v>2700</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="7">
+        <v>3</v>
+      </c>
+      <c r="X25" s="7">
+        <v>10266.66667</v>
+      </c>
+      <c r="Y25" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Z25" s="18">
+        <v>0.342989537</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:26">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2010</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="7">
-        <v>-1.5</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>2700</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U25" s="7">
-        <v>1</v>
-      </c>
-      <c r="V25" s="7">
-        <v>3</v>
-      </c>
-      <c r="W25" s="7">
-        <v>10266.66667</v>
-      </c>
-      <c r="X25" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="Y25" s="19">
-        <v>0.342989537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>69.193954</v>
@@ -3535,67 +3606,70 @@
       <c r="G26" s="8">
         <v>0.361143829147251</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
+        <v>0.361143829147251</v>
+      </c>
+      <c r="I26" s="14">
         <v>23</v>
       </c>
-      <c r="I26" s="10">
+      <c r="J26" s="14">
         <v>22.1</v>
       </c>
-      <c r="J26" s="9">
+      <c r="K26" s="12">
         <v>22</v>
       </c>
-      <c r="K26" s="15">
+      <c r="L26" s="13">
         <v>1.84446569273454</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="M26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>2</v>
+      </c>
+      <c r="R26" s="7">
+        <v>2550</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>3</v>
+      </c>
+      <c r="X26" s="7">
+        <v>2366.6</v>
+      </c>
+      <c r="Y26" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>0.492188136</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:26">
+      <c r="A27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>2550</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0</v>
-      </c>
-      <c r="V26" s="7">
-        <v>3</v>
-      </c>
-      <c r="W26" s="7">
-        <v>2366.6</v>
-      </c>
-      <c r="X26" s="19">
-        <v>0.6875</v>
-      </c>
-      <c r="Y26" s="19">
-        <v>0.492188136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>69.19395</v>
@@ -3612,67 +3686,70 @@
       <c r="G27" s="8">
         <v>0.361143829147251</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
+        <v>0.361143829147251</v>
+      </c>
+      <c r="I27" s="14">
         <v>23</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J27" s="14">
         <v>20.6</v>
       </c>
-      <c r="J27" s="9">
+      <c r="K27" s="12">
         <v>22</v>
       </c>
-      <c r="K27" s="15">
+      <c r="L27" s="13">
         <v>1.84355450482999</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="M27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="R27" s="7">
+        <v>2550</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>3</v>
+      </c>
+      <c r="X27" s="7">
+        <v>6800</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>0.631578947</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>0.446261</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:26">
+      <c r="A28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>2550</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U27" s="7">
-        <v>0</v>
-      </c>
-      <c r="V27" s="7">
-        <v>3</v>
-      </c>
-      <c r="W27" s="7">
-        <v>6800</v>
-      </c>
-      <c r="X27" s="19">
-        <v>0.631578947</v>
-      </c>
-      <c r="Y27" s="19">
-        <v>0.446261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C28" s="7">
         <v>69.193959</v>
@@ -3689,67 +3766,70 @@
       <c r="G28" s="8">
         <v>0.361143829147251</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
+        <v>0.361143829147251</v>
+      </c>
+      <c r="I28" s="14">
         <v>23</v>
       </c>
-      <c r="I28" s="10">
+      <c r="J28" s="14">
         <v>19.2</v>
       </c>
-      <c r="J28" s="9">
+      <c r="K28" s="12">
         <v>22</v>
       </c>
-      <c r="K28" s="15">
+      <c r="L28" s="13">
         <v>1.84256396491502</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="M28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="7">
+        <v>2550</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>3</v>
+      </c>
+      <c r="X28" s="7">
+        <v>9566.6</v>
+      </c>
+      <c r="Y28" s="18">
+        <v>0.542857143</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>0.375528476</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:26">
+      <c r="A29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>2550</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U28" s="7">
-        <v>0</v>
-      </c>
-      <c r="V28" s="7">
-        <v>3</v>
-      </c>
-      <c r="W28" s="7">
-        <v>9566.6</v>
-      </c>
-      <c r="X28" s="19">
-        <v>0.542857143</v>
-      </c>
-      <c r="Y28" s="19">
-        <v>0.375528476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C29" s="7">
         <v>69.193968</v>
@@ -3766,67 +3846,70 @@
       <c r="G29" s="8">
         <v>0.361143829147251</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
+        <v>0.361143829147251</v>
+      </c>
+      <c r="I29" s="14">
         <v>23</v>
       </c>
-      <c r="I29" s="10">
+      <c r="J29" s="14">
         <v>17.9</v>
       </c>
-      <c r="J29" s="9">
+      <c r="K29" s="12">
         <v>22</v>
       </c>
-      <c r="K29" s="15">
+      <c r="L29" s="13">
         <v>1.84195791660172</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="7">
+      <c r="M29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="7">
         <v>2009</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="7">
+      <c r="P29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="R29" s="7">
         <v>2550</v>
       </c>
-      <c r="R29" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S29" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U29" s="7">
+        <v>50</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="7">
         <v>0</v>
       </c>
-      <c r="V29" s="7">
+      <c r="W29" s="7">
         <v>3</v>
       </c>
-      <c r="W29" s="7">
+      <c r="X29" s="7">
         <v>15066.66</v>
       </c>
-      <c r="X29" s="19">
+      <c r="Y29" s="18">
         <v>0.4</v>
       </c>
-      <c r="Y29" s="19">
+      <c r="Z29" s="18">
         <v>0.272891784</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" hidden="1" spans="1:26">
       <c r="A30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="7">
         <v>69.194009</v>
@@ -3843,67 +3926,70 @@
       <c r="G30" s="8">
         <v>0.361143829147251</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
+        <v>0.361143829147251</v>
+      </c>
+      <c r="I30" s="14">
         <v>23</v>
       </c>
-      <c r="I30" s="10">
+      <c r="J30" s="14">
         <v>17.9</v>
       </c>
-      <c r="J30" s="9">
+      <c r="K30" s="12">
         <v>22</v>
       </c>
-      <c r="K30" s="15">
+      <c r="L30" s="13">
         <v>1.83649355438113</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="7">
+      <c r="M30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="7">
         <v>2009</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="7">
+      <c r="P30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="R30" s="7">
         <v>2550</v>
       </c>
-      <c r="R30" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S30" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U30" s="7">
+        <v>61</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V30" s="7">
         <v>1</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="7">
         <v>3</v>
       </c>
-      <c r="W30" s="7">
+      <c r="X30" s="7">
         <v>38560</v>
       </c>
-      <c r="X30" s="19">
+      <c r="Y30" s="18">
         <v>0.424242424</v>
       </c>
-      <c r="Y30" s="19">
+      <c r="Z30" s="18">
         <v>0.289050497</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" hidden="1" spans="1:26">
       <c r="A31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>69.19398</v>
@@ -3920,67 +4006,70 @@
       <c r="G31" s="8">
         <v>0.361143829147251</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
+        <v>0.361143829147251</v>
+      </c>
+      <c r="I31" s="14">
         <v>23</v>
       </c>
-      <c r="I31" s="10">
+      <c r="J31" s="14">
         <v>17.9</v>
       </c>
-      <c r="J31" s="9">
+      <c r="K31" s="12">
         <v>22</v>
       </c>
-      <c r="K31" s="15">
+      <c r="L31" s="13">
         <v>1.83920786105056</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="M31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="7">
+        <v>2009</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>-1.5</v>
+      </c>
+      <c r="R31" s="7">
+        <v>2550</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" s="7">
+        <v>1</v>
+      </c>
+      <c r="W31" s="7">
+        <v>3</v>
+      </c>
+      <c r="X31" s="7">
+        <v>7860</v>
+      </c>
+      <c r="Y31" s="18">
+        <v>0.463414634</v>
+      </c>
+      <c r="Z31" s="18">
+        <v>0.316320844</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:26">
+      <c r="A32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2009</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" s="7">
-        <v>-1.5</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>2550</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U31" s="7">
-        <v>1</v>
-      </c>
-      <c r="V31" s="7">
-        <v>3</v>
-      </c>
-      <c r="W31" s="7">
-        <v>7860</v>
-      </c>
-      <c r="X31" s="19">
-        <v>0.463414634</v>
-      </c>
-      <c r="Y31" s="19">
-        <v>0.316320844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>69.18283</v>
@@ -3997,67 +4086,70 @@
       <c r="G32" s="8">
         <v>0.40636113572051</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="8">
+        <v>0.40636113572051</v>
+      </c>
+      <c r="I32" s="15">
         <v>16.8</v>
       </c>
-      <c r="I32" s="11">
+      <c r="J32" s="15">
         <v>0.9</v>
       </c>
-      <c r="J32" s="9">
+      <c r="K32" s="12">
         <v>22</v>
       </c>
-      <c r="K32" s="15">
+      <c r="L32" s="13">
         <v>0.884027957949135</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32" s="7">
+      <c r="M32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" s="7">
         <v>2009</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="7">
+      <c r="P32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="R32" s="7">
         <v>0</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U32" s="7">
+        <v>32</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" s="7">
         <v>0</v>
       </c>
-      <c r="V32" s="7">
+      <c r="W32" s="7">
         <v>2</v>
       </c>
-      <c r="W32" s="7">
+      <c r="X32" s="7">
         <v>292.5</v>
       </c>
-      <c r="X32" s="19">
+      <c r="Y32" s="18">
         <v>0.689655172</v>
       </c>
-      <c r="Y32" s="19">
+      <c r="Z32" s="18">
         <v>0.49396581</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" hidden="1" spans="1:26">
       <c r="A33" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
         <v>69.188807</v>
@@ -4074,192 +4166,198 @@
       <c r="G33" s="8">
         <v>0.43095898263699</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
+        <v>0.43095898263699</v>
+      </c>
+      <c r="I33" s="12">
         <v>17.4</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="12">
         <v>16.7</v>
       </c>
-      <c r="J33" s="9">
+      <c r="K33" s="12">
         <v>22</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="13">
         <v>0.203346311288183</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N33" s="7">
+      <c r="M33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="7">
         <v>2010</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="7">
+      <c r="P33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="7">
         <v>2</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="R33" s="7">
         <v>800</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U33" s="7">
+        <v>32</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V33" s="7">
         <v>0</v>
       </c>
-      <c r="V33" s="7">
+      <c r="W33" s="7">
         <v>3</v>
       </c>
-      <c r="W33" s="7">
+      <c r="X33" s="7">
         <v>750</v>
       </c>
-      <c r="X33" s="19">
+      <c r="Y33" s="18">
         <v>0.787878788</v>
       </c>
-      <c r="Y33" s="19">
+      <c r="Z33" s="18">
         <v>0.574442517</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" hidden="1" spans="1:26">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="12">
+        <v>27</v>
+      </c>
+      <c r="C34" s="9">
         <v>69.188761</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <v>33.626573</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>69.188761</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <v>33.626573</v>
       </c>
       <c r="G34" s="8">
         <v>0.433593869196281</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
+        <v>0.433593869196281</v>
+      </c>
+      <c r="I34" s="12">
         <v>17.4</v>
       </c>
-      <c r="I34" s="9">
+      <c r="J34" s="12">
         <v>13</v>
       </c>
-      <c r="J34" s="9">
+      <c r="K34" s="12">
         <v>22</v>
       </c>
-      <c r="K34" s="15">
+      <c r="L34" s="13">
         <v>0.199997964055494</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="M34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="7">
         <v>2010</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="7">
+      <c r="P34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="7">
         <v>1.5</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="R34" s="7">
         <v>800</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U34" s="7">
+        <v>32</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" s="7">
         <v>0</v>
       </c>
-      <c r="V34" s="7">
+      <c r="W34" s="7">
         <v>3</v>
       </c>
-      <c r="W34" s="7">
+      <c r="X34" s="7">
         <v>400</v>
       </c>
-      <c r="X34" s="20">
+      <c r="Y34" s="22">
         <v>0.44</v>
       </c>
-      <c r="Y34" s="20">
+      <c r="Z34" s="22">
         <v>0.299852571</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26">
       <c r="A35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="12">
+        <v>27</v>
+      </c>
+      <c r="C35" s="9">
         <v>69.188685</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <v>33.626176</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>69.188685</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="9">
         <v>33.626176</v>
       </c>
       <c r="G35" s="8">
         <v>0.437973923324811</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
+        <v>0.437973923324811</v>
+      </c>
+      <c r="I35" s="12">
         <v>17.4</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="12">
         <v>9.6</v>
       </c>
-      <c r="J35" s="9">
+      <c r="K35" s="12">
         <v>22</v>
       </c>
-      <c r="K35" s="15">
+      <c r="L35" s="13">
         <v>0.195427648681471</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N35" s="7">
+      <c r="M35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" s="7">
         <v>2010</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="7">
+      <c r="P35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="7">
         <v>1</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="R35" s="7">
         <v>800</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>31</v>
@@ -4267,28 +4365,31 @@
       <c r="T35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="7">
         <v>0</v>
       </c>
-      <c r="V35" s="7">
+      <c r="W35" s="7">
         <v>4</v>
       </c>
-      <c r="W35" s="7">
+      <c r="X35" s="7">
         <v>250</v>
       </c>
-      <c r="X35" s="20">
+      <c r="Y35" s="22">
         <v>0.38</v>
       </c>
-      <c r="Y35" s="20">
+      <c r="Z35" s="22">
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26">
       <c r="A36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>69.18854</v>
@@ -4305,38 +4406,38 @@
       <c r="G36" s="8">
         <v>0.446559686551688</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
+        <v>0.446559686551688</v>
+      </c>
+      <c r="I36" s="12">
         <v>17.4</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="12">
         <v>6.3</v>
       </c>
-      <c r="J36" s="9">
+      <c r="K36" s="12">
         <v>22</v>
       </c>
-      <c r="K36" s="15">
+      <c r="L36" s="13">
         <v>0.193178239098668</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="M36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="7">
         <v>2010</v>
       </c>
-      <c r="O36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P36" s="7">
+      <c r="P36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="R36" s="7">
         <v>800</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S36" s="7" t="s">
         <v>31</v>
@@ -4344,28 +4445,31 @@
       <c r="T36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" s="7">
         <v>0</v>
       </c>
-      <c r="V36" s="7">
+      <c r="W36" s="7">
         <v>4</v>
       </c>
-      <c r="W36" s="7">
+      <c r="X36" s="7">
         <v>566.6</v>
       </c>
-      <c r="X36" s="19">
+      <c r="Y36" s="18">
         <v>0.54</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="Z36" s="18">
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" hidden="1" spans="1:26">
       <c r="A37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>69.188406</v>
@@ -4382,67 +4486,70 @@
       <c r="G37" s="8">
         <v>0.468998778068117</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
+        <v>0.468998778068117</v>
+      </c>
+      <c r="I37" s="12">
         <v>17.4</v>
       </c>
-      <c r="I37" s="9">
+      <c r="J37" s="12">
         <v>6.3</v>
       </c>
-      <c r="J37" s="9">
+      <c r="K37" s="12">
         <v>22</v>
       </c>
-      <c r="K37" s="15">
+      <c r="L37" s="13">
         <v>0.194069461265742</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N37" s="7">
+      <c r="M37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="7">
         <v>2010</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P37" s="7">
+      <c r="P37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="R37" s="7">
         <v>800</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U37" s="7">
+        <v>32</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V37" s="7">
         <v>0</v>
       </c>
-      <c r="V37" s="7">
+      <c r="W37" s="7">
         <v>1</v>
       </c>
-      <c r="W37" s="7">
+      <c r="X37" s="7">
         <v>1533.33</v>
       </c>
-      <c r="X37" s="19">
+      <c r="Y37" s="18">
         <v>0.54</v>
       </c>
-      <c r="Y37" s="19">
+      <c r="Z37" s="18">
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" hidden="1" spans="1:26">
       <c r="A38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7">
         <v>69.188364</v>
@@ -4459,67 +4566,70 @@
       <c r="G38" s="8">
         <v>0.473312284333688</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
+        <v>0.473312284333688</v>
+      </c>
+      <c r="I38" s="12">
         <v>17.4</v>
       </c>
-      <c r="I38" s="9">
+      <c r="J38" s="12">
         <v>6.3</v>
       </c>
-      <c r="J38" s="9">
+      <c r="K38" s="12">
         <v>22</v>
       </c>
-      <c r="K38" s="15">
+      <c r="L38" s="13">
         <v>0.194118566034576</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N38" s="7">
+      <c r="M38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" s="7">
         <v>2010</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P38" s="7">
+      <c r="P38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="7">
         <v>-1.5</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="R38" s="7">
         <v>800</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U38" s="7">
+        <v>32</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V38" s="7">
         <v>0</v>
       </c>
-      <c r="V38" s="7">
+      <c r="W38" s="7">
         <v>1</v>
       </c>
-      <c r="W38" s="19">
+      <c r="X38" s="18">
         <v>466.67</v>
       </c>
-      <c r="X38" s="20">
+      <c r="Y38" s="22">
         <v>0.17</v>
       </c>
-      <c r="Y38" s="20">
+      <c r="Z38" s="22">
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" hidden="1" spans="1:26">
       <c r="A39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7">
         <v>69.188307</v>
@@ -4536,67 +4646,70 @@
       <c r="G39" s="8">
         <v>0.478411298429854</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
+        <v>0.478411298429854</v>
+      </c>
+      <c r="I39" s="12">
         <v>17.4</v>
       </c>
-      <c r="I39" s="9">
+      <c r="J39" s="12">
         <v>6.3</v>
       </c>
-      <c r="J39" s="9">
+      <c r="K39" s="12">
         <v>22</v>
       </c>
-      <c r="K39" s="15">
+      <c r="L39" s="13">
         <v>0.196352062988929</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N39" s="7">
+      <c r="M39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" s="7">
         <v>2010</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" s="7">
+      <c r="P39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="7">
         <v>-3.5</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="R39" s="7">
         <v>800</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U39" s="7">
+        <v>32</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V39" s="7">
         <v>0</v>
       </c>
-      <c r="V39" s="7">
+      <c r="W39" s="7">
         <v>1</v>
       </c>
-      <c r="W39" s="19">
+      <c r="X39" s="18">
         <v>3266.67</v>
       </c>
-      <c r="X39" s="19">
+      <c r="Y39" s="18">
         <v>0.045454545</v>
       </c>
-      <c r="Y39" s="19">
+      <c r="Z39" s="18">
         <v>0.104331223</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26">
       <c r="A40" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="7">
         <v>69.186283</v>
@@ -4613,38 +4726,38 @@
       <c r="G40" s="8">
         <v>0.52820417260623</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
+        <v>0.52820417260623</v>
+      </c>
+      <c r="I40" s="12">
         <v>17.4</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="12">
         <v>12.3</v>
       </c>
-      <c r="J40" s="9">
+      <c r="K40" s="12">
         <v>22</v>
       </c>
-      <c r="K40" s="15">
+      <c r="L40" s="13">
         <v>0.57657019448268</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O40" s="7">
         <v>2010</v>
       </c>
-      <c r="O40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P40" s="7">
+      <c r="P40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="7">
         <v>1.5</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="R40" s="7">
         <v>650</v>
-      </c>
-      <c r="R40" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S40" s="7" t="s">
         <v>31</v>
@@ -4652,28 +4765,31 @@
       <c r="T40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40" s="7">
         <v>0</v>
       </c>
-      <c r="V40" s="7">
+      <c r="W40" s="7">
         <v>4</v>
       </c>
-      <c r="W40" s="7">
+      <c r="X40" s="7">
         <v>32.5</v>
       </c>
-      <c r="X40" s="20">
+      <c r="Y40" s="22">
         <v>0.84</v>
       </c>
-      <c r="Y40" s="20">
+      <c r="Z40" s="22">
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26">
       <c r="A41" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="7">
         <v>69.186649</v>
@@ -4690,38 +4806,38 @@
       <c r="G41" s="8">
         <v>0.526613022433974</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
+        <v>0.526613022433974</v>
+      </c>
+      <c r="I41" s="12">
         <v>17.4</v>
       </c>
-      <c r="I41" s="9">
+      <c r="J41" s="12">
         <v>8.8</v>
       </c>
-      <c r="J41" s="9">
+      <c r="K41" s="12">
         <v>22</v>
       </c>
-      <c r="K41" s="15">
+      <c r="L41" s="13">
         <v>0.481977345245402</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N41" s="7">
+      <c r="M41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" s="7">
         <v>2010</v>
       </c>
-      <c r="O41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="7">
+      <c r="P41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="7">
         <v>1</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="R41" s="7">
         <v>650</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>31</v>
@@ -4729,28 +4845,31 @@
       <c r="T41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V41" s="7">
         <v>0</v>
       </c>
-      <c r="V41" s="7">
+      <c r="W41" s="7">
         <v>4</v>
       </c>
-      <c r="W41" s="7">
+      <c r="X41" s="7">
         <v>156</v>
       </c>
-      <c r="X41" s="20">
+      <c r="Y41" s="22">
         <v>0.84</v>
       </c>
-      <c r="Y41" s="20">
+      <c r="Z41" s="22">
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:26">
       <c r="A42" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>69.187367</v>
@@ -4767,38 +4886,38 @@
       <c r="G42" s="8">
         <v>0.553115855281673</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
+        <v>0.553115855281673</v>
+      </c>
+      <c r="I42" s="12">
         <v>17.4</v>
       </c>
-      <c r="I42" s="9">
+      <c r="J42" s="12">
         <v>5.3</v>
       </c>
-      <c r="J42" s="9">
+      <c r="K42" s="12">
         <v>22</v>
       </c>
-      <c r="K42" s="15">
+      <c r="L42" s="13">
         <v>0.330678844683175</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N42" s="7">
+      <c r="M42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O42" s="7">
         <v>2010</v>
       </c>
-      <c r="O42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P42" s="7">
+      <c r="P42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="R42" s="7">
         <v>650</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S42" s="7" t="s">
         <v>31</v>
@@ -4806,28 +4925,31 @@
       <c r="T42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" s="7">
         <v>0</v>
       </c>
-      <c r="V42" s="7">
+      <c r="W42" s="7">
         <v>4</v>
       </c>
-      <c r="W42" s="7">
+      <c r="X42" s="7">
         <v>2133.33</v>
       </c>
-      <c r="X42" s="20">
+      <c r="Y42" s="22">
         <v>0.35</v>
       </c>
-      <c r="Y42" s="20">
+      <c r="Z42" s="22">
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" hidden="1" spans="1:26">
       <c r="A43" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>69.187687</v>
@@ -4844,67 +4966,70 @@
       <c r="G43" s="8">
         <v>0.544224728308571</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
+        <v>0.544224728308571</v>
+      </c>
+      <c r="I43" s="12">
         <v>17.4</v>
       </c>
-      <c r="I43" s="9">
+      <c r="J43" s="12">
         <v>5.3</v>
       </c>
-      <c r="J43" s="9">
+      <c r="K43" s="12">
         <v>22</v>
       </c>
-      <c r="K43" s="15">
+      <c r="L43" s="13">
         <v>0.279614027584664</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N43" s="7">
+      <c r="M43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O43" s="7">
         <v>2010</v>
       </c>
-      <c r="O43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P43" s="7">
+      <c r="P43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="R43" s="7">
         <v>650</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U43" s="7">
+        <v>32</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43" s="7">
         <v>0</v>
       </c>
-      <c r="V43" s="7">
+      <c r="W43" s="7">
         <v>1</v>
       </c>
-      <c r="W43" s="7">
+      <c r="X43" s="7">
         <v>900</v>
       </c>
-      <c r="X43" s="20">
+      <c r="Y43" s="22">
         <v>0.35</v>
       </c>
-      <c r="Y43" s="20">
+      <c r="Z43" s="22">
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" hidden="1" spans="1:26">
       <c r="A44" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="7">
         <v>69.187825</v>
@@ -4921,67 +5046,70 @@
       <c r="G44" s="8">
         <v>0.53657248085969</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
+        <v>0.53657248085969</v>
+      </c>
+      <c r="I44" s="12">
         <v>17.4</v>
       </c>
-      <c r="I44" s="9">
+      <c r="J44" s="12">
         <v>5.3</v>
       </c>
-      <c r="J44" s="9">
+      <c r="K44" s="12">
         <v>22</v>
       </c>
-      <c r="K44" s="15">
+      <c r="L44" s="13">
         <v>0.256736694717309</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N44" s="7">
+      <c r="M44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" s="7">
         <v>2010</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P44" s="7">
+      <c r="P44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="7">
         <v>-1.5</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="R44" s="7">
         <v>650</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="S44" s="7" t="s">
         <v>31</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U44" s="7">
+        <v>32</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V44" s="7">
         <v>0</v>
       </c>
-      <c r="V44" s="7">
+      <c r="W44" s="7">
         <v>1</v>
       </c>
-      <c r="W44" s="7">
+      <c r="X44" s="7">
         <v>133.3</v>
       </c>
-      <c r="X44" s="20">
+      <c r="Y44" s="22">
         <v>0.17</v>
       </c>
-      <c r="Y44" s="20">
+      <c r="Z44" s="22">
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" hidden="1" spans="1:26">
       <c r="A45" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" s="7">
         <v>69.185351</v>
@@ -4998,63 +5126,78 @@
       <c r="G45" s="8">
         <v>0.432087949216916</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
+        <v>0.432087949216916</v>
+      </c>
+      <c r="I45" s="12">
         <v>17.4</v>
       </c>
-      <c r="I45" s="9">
+      <c r="J45" s="12">
         <v>3.7</v>
       </c>
-      <c r="J45" s="9">
+      <c r="K45" s="12">
         <v>22</v>
       </c>
-      <c r="K45" s="15">
+      <c r="L45" s="13">
         <v>0.528530434302476</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N45" s="7">
+      <c r="M45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="7">
         <v>2010</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P45" s="7">
+      <c r="P45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="R45" s="19">
         <v>420</v>
       </c>
-      <c r="R45" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S45" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V45" s="7">
+        <v>19</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W45" s="7">
         <v>3</v>
       </c>
-      <c r="W45" s="7">
+      <c r="X45" s="7">
         <v>3610</v>
       </c>
-      <c r="X45" s="19">
+      <c r="Y45" s="18">
         <v>0.07</v>
       </c>
-      <c r="Y45" s="19">
+      <c r="Z45" s="18">
         <v>0.11214657</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y45">
+  <autoFilter ref="A1:Z45">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="Algae"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <filters>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5075,10 +5218,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5087,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5098,10 +5241,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1">
         <v>69.190018</v>
@@ -5113,7 +5256,7 @@
         <v>0.547463655488478</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5121,10 +5264,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1">
         <v>69.190018</v>
@@ -5136,7 +5279,7 @@
         <v>0.546352425511874</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5144,10 +5287,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1">
         <v>69.190018</v>
@@ -5159,7 +5302,7 @@
         <v>0.543979141533625</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5167,10 +5310,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1">
         <v>69.190018</v>
@@ -5182,7 +5325,7 @@
         <v>0.537686005284502</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5190,10 +5333,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1">
         <v>69.190018</v>
@@ -5205,7 +5348,7 @@
         <v>0.53150916847992</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5213,10 +5356,10 @@
         <v>44932</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1">
         <v>69.190018</v>
@@ -5228,7 +5371,7 @@
         <v>0.908977562927479</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5236,10 +5379,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1">
         <v>69.190018</v>
@@ -5251,7 +5394,7 @@
         <v>0.582326718193306</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5259,10 +5402,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1">
         <v>69.190018</v>
@@ -5274,7 +5417,7 @@
         <v>0.533248653327106</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5282,10 +5425,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1">
         <v>69.190018</v>
@@ -5297,7 +5440,7 @@
         <v>0.528530434302476</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5305,10 +5448,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>69.190018</v>
@@ -5320,7 +5463,7 @@
         <v>0.536812186062027</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5328,10 +5471,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1">
         <v>69.190018</v>
@@ -5343,7 +5486,7 @@
         <v>0.527412276880499</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5351,10 +5494,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1">
         <v>69.190018</v>
@@ -5366,7 +5509,7 @@
         <v>1.01139482757429</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5374,10 +5517,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
         <v>69.190018</v>
@@ -5389,7 +5532,7 @@
         <v>1.01215707802803</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5397,10 +5540,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1">
         <v>69.190018</v>
@@ -5412,7 +5555,7 @@
         <v>1.01232859898621</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5420,10 +5563,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1">
         <v>69.190018</v>
@@ -5435,7 +5578,7 @@
         <v>1.01281463679264</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5443,10 +5586,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1">
         <v>69.190018</v>
@@ -5458,7 +5601,7 @@
         <v>1.0062947781684</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5466,10 +5609,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1">
         <v>69.190018</v>
@@ -5481,7 +5624,7 @@
         <v>1.0049708150495</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5489,10 +5632,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1">
         <v>69.190018</v>
@@ -5504,7 +5647,7 @@
         <v>1.00751676371237</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5512,10 +5655,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1">
         <v>69.190018</v>
@@ -5527,7 +5670,7 @@
         <v>1.94381499177705</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5535,10 +5678,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1">
         <v>69.190018</v>
@@ -5550,7 +5693,7 @@
         <v>1.94347922356947</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5558,10 +5701,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1">
         <v>69.190018</v>
@@ -5573,7 +5716,7 @@
         <v>1.94244778454608</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5581,10 +5724,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1">
         <v>69.190018</v>
@@ -5596,7 +5739,7 @@
         <v>1.94055726701817</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5604,10 +5747,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1">
         <v>69.190018</v>
@@ -5619,7 +5762,7 @@
         <v>1.94121842309002</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5627,10 +5770,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1">
         <v>69.190018</v>
@@ -5642,7 +5785,7 @@
         <v>1.94146264049796</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5650,10 +5793,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1">
         <v>69.190018</v>
@@ -5665,7 +5808,7 @@
         <v>1.84446569273454</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5673,10 +5816,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1">
         <v>69.190018</v>
@@ -5688,7 +5831,7 @@
         <v>1.84355450482999</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5696,10 +5839,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1">
         <v>69.190018</v>
@@ -5711,7 +5854,7 @@
         <v>1.84256396491502</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5719,10 +5862,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1">
         <v>69.190018</v>
@@ -5734,7 +5877,7 @@
         <v>1.84195791660172</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5742,10 +5885,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1">
         <v>69.190018</v>
@@ -5757,7 +5900,7 @@
         <v>1.83649355438113</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5765,10 +5908,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1">
         <v>69.190018</v>
@@ -5780,7 +5923,7 @@
         <v>1.83920786105056</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5788,10 +5931,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1">
         <v>69.190018</v>
@@ -5803,7 +5946,7 @@
         <v>0.884027957949135</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5811,10 +5954,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1">
         <v>69.190018</v>
@@ -5826,7 +5969,7 @@
         <v>0.203346311288183</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5834,10 +5977,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1">
         <v>69.190018</v>
@@ -5849,7 +5992,7 @@
         <v>0.199997964055494</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5857,10 +6000,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1">
         <v>69.190018</v>
@@ -5872,7 +6015,7 @@
         <v>0.195427648681471</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5880,10 +6023,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
         <v>69.190018</v>
@@ -5895,7 +6038,7 @@
         <v>0.193178239098668</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5903,10 +6046,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1">
         <v>69.190018</v>
@@ -5918,7 +6061,7 @@
         <v>0.194069461265742</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5926,10 +6069,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1">
         <v>69.190018</v>
@@ -5941,7 +6084,7 @@
         <v>0.194118566034576</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5949,10 +6092,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D39" s="1">
         <v>69.190018</v>
@@ -5964,7 +6107,7 @@
         <v>0.196352062988929</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5972,10 +6115,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1">
         <v>69.190018</v>
@@ -5987,7 +6130,7 @@
         <v>0.57657019448268</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5995,10 +6138,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1">
         <v>69.190018</v>
@@ -6010,7 +6153,7 @@
         <v>0.481977345245402</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6018,10 +6161,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1">
         <v>69.190018</v>
@@ -6033,7 +6176,7 @@
         <v>0.330678844683175</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6041,10 +6184,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="1">
         <v>69.190018</v>
@@ -6056,7 +6199,7 @@
         <v>0.279614027584664</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6064,10 +6207,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="1">
         <v>69.190018</v>
@@ -6079,7 +6222,7 @@
         <v>0.256736694717309</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6087,10 +6230,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1">
         <v>69.190018</v>
@@ -6102,7 +6245,7 @@
         <v>0.528530434302476</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Z$45</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="97">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -104,7 +105,7 @@
     <t>intertidal</t>
   </si>
   <si>
-    <t>Abandoned</t>
+    <t>Active</t>
   </si>
   <si>
     <t>BN</t>
@@ -306,6 +307,9 @@
   </si>
   <si>
     <t>Тюва</t>
+  </si>
+  <si>
+    <t>Полярный</t>
   </si>
 </sst>
 </file>
@@ -317,11 +321,11 @@
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#\ ##0"/>
-    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="181" formatCode="#\ ##0"/>
     <numFmt numFmtId="182" formatCode="#.00000\ ##0"/>
     <numFmt numFmtId="183" formatCode="#.\ #0"/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
     <numFmt numFmtId="185" formatCode="#.\ ##0"/>
     <numFmt numFmtId="186" formatCode="#.\ 0"/>
   </numFmts>
@@ -1567,8 +1571,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1699,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="13">
-        <v>0.547463655488478</v>
+        <v>5.37745584439991</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>28</v>
@@ -1779,7 +1783,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="13">
-        <v>0.546352425511874</v>
+        <v>5.36964507578786</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>28</v>
@@ -1859,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="13">
-        <v>0.543979141533625</v>
+        <v>5.35895326900239</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>28</v>
@@ -1904,7 +1908,7 @@
         <v>0.397884934</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:26">
+    <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="13">
-        <v>0.537686005284502</v>
+        <v>5.33121969203691</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>28</v>
@@ -1984,7 +1988,7 @@
         <v>0.334395307</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:26">
+    <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2019,7 +2023,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="13">
-        <v>0.53150916847992</v>
+        <v>5.31412994952893</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>28</v>
@@ -2064,7 +2068,7 @@
         <v>0.239659817</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:26">
+    <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="13">
-        <v>0.908977562927479</v>
+        <v>5.27120118652315</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>28</v>
@@ -2144,7 +2148,7 @@
         <v>0.325508296</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:26">
+    <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="13">
-        <v>0.582326718193306</v>
+        <v>5.00959643191706</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>28</v>
@@ -2259,7 +2263,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="13">
-        <v>0.533248653327106</v>
+        <v>5.13963715175461</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>28</v>
@@ -2304,7 +2308,7 @@
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:26">
+    <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="13">
-        <v>0.528530434302476</v>
+        <v>5.16919266460931</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>28</v>
@@ -2384,7 +2388,7 @@
         <v>0.180959667</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:26">
+    <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="13">
-        <v>0.536812186062027</v>
+        <v>5.27469094833891</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>28</v>
@@ -2464,7 +2468,7 @@
         <v>0.10724674</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:26">
+    <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="13">
-        <v>0.527412276880499</v>
+        <v>5.28578867715638</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>28</v>
@@ -2579,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="L13" s="13">
-        <v>1.01139482757429</v>
+        <v>4.25756931539784</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>28</v>
@@ -2659,7 +2663,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="13">
-        <v>1.01215707802803</v>
+        <v>4.25507820064882</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>28</v>
@@ -2704,7 +2708,7 @@
         <v>0.547227216</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:26">
+    <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="13">
-        <v>1.01232859898621</v>
+        <v>4.25342435031775</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>28</v>
@@ -2784,7 +2788,7 @@
         <v>0.412450051</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:26">
+    <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="13">
-        <v>1.01281463679264</v>
+        <v>4.25580546683216</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>28</v>
@@ -2864,7 +2868,7 @@
         <v>0.475020813</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:26">
+    <row r="17" spans="1:26">
       <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="13">
-        <v>1.0062947781684</v>
+        <v>4.25146994312305</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>28</v>
@@ -2926,7 +2930,7 @@
         <v>50</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="V17" s="7">
         <v>1</v>
@@ -2979,7 +2983,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="13">
-        <v>1.0049708150495</v>
+        <v>4.2432548828041</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>28</v>
@@ -3059,7 +3063,7 @@
         <v>22</v>
       </c>
       <c r="L19" s="13">
-        <v>1.00751676371237</v>
+        <v>4.23942471505859</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>28</v>
@@ -3104,7 +3108,7 @@
         <v>0.295254302</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" hidden="1" spans="1:26">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="13">
-        <v>1.94381499177705</v>
+        <v>3.50469523927603</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>28</v>
@@ -3184,7 +3188,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" hidden="1" spans="1:26">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="13">
-        <v>1.94347922356947</v>
+        <v>3.50364216855666</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>28</v>
@@ -3264,7 +3268,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" hidden="1" spans="1:26">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="13">
-        <v>1.94244778454608</v>
+        <v>3.50223546121422</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>28</v>
@@ -3379,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="13">
-        <v>1.94055726701817</v>
+        <v>3.50304127641457</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>28</v>
@@ -3459,7 +3463,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="13">
-        <v>1.94121842309002</v>
+        <v>3.50105935898688</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>28</v>
@@ -3486,7 +3490,7 @@
         <v>61</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="V24" s="7">
         <v>1</v>
@@ -3539,7 +3543,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="13">
-        <v>1.94146264049796</v>
+        <v>3.49936169934597</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>28</v>
@@ -3566,7 +3570,7 @@
         <v>61</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="V25" s="7">
         <v>1</v>
@@ -3584,7 +3588,7 @@
         <v>0.342989537</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:26">
+    <row r="26" spans="1:26">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="13">
-        <v>1.84446569273454</v>
+        <v>3.26029048800299</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>28</v>
@@ -3664,7 +3668,7 @@
         <v>0.492188136</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:26">
+    <row r="27" spans="1:26">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="13">
-        <v>1.84355450482999</v>
+        <v>3.26106711970451</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>28</v>
@@ -3744,7 +3748,7 @@
         <v>0.446261</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:26">
+    <row r="28" spans="1:26">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="13">
-        <v>1.84256396491502</v>
+        <v>3.26243162385655</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>28</v>
@@ -3824,7 +3828,7 @@
         <v>0.375528476</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:26">
+    <row r="29" spans="1:26">
       <c r="A29" s="7" t="s">
         <v>70</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="13">
-        <v>1.84195791660172</v>
+        <v>3.2634037064374</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>28</v>
@@ -3904,7 +3908,7 @@
         <v>0.272891784</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:26">
+    <row r="30" spans="1:26">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="13">
-        <v>1.83649355438113</v>
+        <v>3.27061390974891</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>28</v>
@@ -3966,7 +3970,7 @@
         <v>61</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="V30" s="7">
         <v>1</v>
@@ -3984,7 +3988,7 @@
         <v>0.289050497</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:26">
+    <row r="31" spans="1:26">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="13">
-        <v>1.83920786105056</v>
+        <v>3.26668954081546</v>
       </c>
       <c r="M31" s="10" t="s">
         <v>28</v>
@@ -4046,7 +4050,7 @@
         <v>61</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="V31" s="7">
         <v>1</v>
@@ -4064,7 +4068,7 @@
         <v>0.316320844</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:26">
+    <row r="32" spans="1:26">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>22</v>
       </c>
       <c r="L32" s="13">
-        <v>0.884027957949135</v>
+        <v>5.48331310205788</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>28</v>
@@ -4179,7 +4183,7 @@
         <v>22</v>
       </c>
       <c r="L33" s="13">
-        <v>0.203346311288183</v>
+        <v>5.19032246088706</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>28</v>
@@ -4259,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="13">
-        <v>0.199997964055494</v>
+        <v>5.18123111438092</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>28</v>
@@ -4304,7 +4308,7 @@
         <v>0.299852571</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" hidden="1" spans="1:26">
       <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>22</v>
       </c>
       <c r="L35" s="13">
-        <v>0.195427648681471</v>
+        <v>5.16594376224574</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>28</v>
@@ -4384,7 +4388,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" hidden="1" spans="1:26">
       <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="13">
-        <v>0.193178239098668</v>
+        <v>5.14090337994719</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>28</v>
@@ -4499,7 +4503,7 @@
         <v>22</v>
       </c>
       <c r="L37" s="13">
-        <v>0.194069461265742</v>
+        <v>5.11455515563588</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>28</v>
@@ -4579,7 +4583,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="13">
-        <v>0.194118566034576</v>
+        <v>5.1025330323121</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>28</v>
@@ -4659,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="L39" s="13">
-        <v>0.196352062988929</v>
+        <v>5.08934528436013</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>28</v>
@@ -4704,7 +4708,7 @@
         <v>0.104331223</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" hidden="1" spans="1:26">
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="13">
-        <v>0.57657019448268</v>
+        <v>4.66050850681044</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>28</v>
@@ -4784,7 +4788,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" hidden="1" spans="1:26">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>22</v>
       </c>
       <c r="L41" s="13">
-        <v>0.481977345245402</v>
+        <v>4.75250151352272</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>28</v>
@@ -4864,7 +4868,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" hidden="1" spans="1:26">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>22</v>
       </c>
       <c r="L42" s="13">
-        <v>0.330678844683175</v>
+        <v>4.89831947382201</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>28</v>
@@ -4979,7 +4983,7 @@
         <v>22</v>
       </c>
       <c r="L43" s="13">
-        <v>0.279614027584664</v>
+        <v>4.94051150965134</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>28</v>
@@ -5059,7 +5063,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="13">
-        <v>0.256736694717309</v>
+        <v>4.96397351232135</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>28</v>
@@ -5139,7 +5143,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="13">
-        <v>0.528530434302476</v>
+        <v>5.16919266460931</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>28</v>
@@ -5186,16 +5190,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z45">
-    <filterColumn colId="20">
+    <filterColumn colId="14">
       <filters>
-        <filter val="Algae"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="5"/>
+        <filter val="2009"/>
       </filters>
     </filterColumn>
     <extLst/>
@@ -5246,10 +5243,10 @@
       <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>33.622952</v>
       </c>
       <c r="F2">
@@ -5269,10 +5266,10 @@
       <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>33.622952</v>
       </c>
       <c r="F3">
@@ -5292,10 +5289,10 @@
       <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>33.622952</v>
       </c>
       <c r="F4">
@@ -5315,10 +5312,10 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>33.622952</v>
       </c>
       <c r="F5">
@@ -5338,10 +5335,10 @@
       <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>33.622952</v>
       </c>
       <c r="F6">
@@ -5352,7 +5349,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>44932</v>
       </c>
       <c r="B7" t="s">
@@ -5361,10 +5358,10 @@
       <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>33.622952</v>
       </c>
       <c r="F7">
@@ -5384,10 +5381,10 @@
       <c r="C8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>33.622952</v>
       </c>
       <c r="F8">
@@ -5407,10 +5404,10 @@
       <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>33.622952</v>
       </c>
       <c r="F9">
@@ -5430,10 +5427,10 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>33.622952</v>
       </c>
       <c r="F10">
@@ -5453,10 +5450,10 @@
       <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>33.622952</v>
       </c>
       <c r="F11">
@@ -5476,10 +5473,10 @@
       <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>33.622952</v>
       </c>
       <c r="F12">
@@ -5499,13 +5496,13 @@
       <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>1.01139482757429</v>
       </c>
       <c r="G13" t="s">
@@ -5522,13 +5519,13 @@
       <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>1.01215707802803</v>
       </c>
       <c r="G14" t="s">
@@ -5545,13 +5542,13 @@
       <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>1.01232859898621</v>
       </c>
       <c r="G15" t="s">
@@ -5568,13 +5565,13 @@
       <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1.01281463679264</v>
       </c>
       <c r="G16" t="s">
@@ -5591,13 +5588,13 @@
       <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1.0062947781684</v>
       </c>
       <c r="G17" t="s">
@@ -5614,13 +5611,13 @@
       <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>1.0049708150495</v>
       </c>
       <c r="G18" t="s">
@@ -5637,13 +5634,13 @@
       <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>1.00751676371237</v>
       </c>
       <c r="G19" t="s">
@@ -5660,13 +5657,13 @@
       <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>1.94381499177705</v>
       </c>
       <c r="G20" t="s">
@@ -5683,13 +5680,13 @@
       <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>1.94347922356947</v>
       </c>
       <c r="G21" t="s">
@@ -5706,13 +5703,13 @@
       <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>1.94244778454608</v>
       </c>
       <c r="G22" t="s">
@@ -5729,13 +5726,13 @@
       <c r="C23" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>1.94055726701817</v>
       </c>
       <c r="G23" t="s">
@@ -5752,13 +5749,13 @@
       <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>1.94121842309002</v>
       </c>
       <c r="G24" t="s">
@@ -5775,13 +5772,13 @@
       <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>1.94146264049796</v>
       </c>
       <c r="G25" t="s">
@@ -5798,13 +5795,13 @@
       <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1.84446569273454</v>
       </c>
       <c r="G26" t="s">
@@ -5821,13 +5818,13 @@
       <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>1.84355450482999</v>
       </c>
       <c r="G27" t="s">
@@ -5844,13 +5841,13 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>1.84256396491502</v>
       </c>
       <c r="G28" t="s">
@@ -5867,13 +5864,13 @@
       <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>1.84195791660172</v>
       </c>
       <c r="G29" t="s">
@@ -5890,13 +5887,13 @@
       <c r="C30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>1.83649355438113</v>
       </c>
       <c r="G30" t="s">
@@ -5913,13 +5910,13 @@
       <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>33.622952</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>1.83920786105056</v>
       </c>
       <c r="G31" t="s">
@@ -5936,10 +5933,10 @@
       <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>33.622952</v>
       </c>
       <c r="F32">
@@ -5959,10 +5956,10 @@
       <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>33.622952</v>
       </c>
       <c r="F33">
@@ -5982,10 +5979,10 @@
       <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>33.622952</v>
       </c>
       <c r="F34">
@@ -6005,10 +6002,10 @@
       <c r="C35" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>33.622952</v>
       </c>
       <c r="F35">
@@ -6028,10 +6025,10 @@
       <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>33.622952</v>
       </c>
       <c r="F36">
@@ -6051,10 +6048,10 @@
       <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>33.622952</v>
       </c>
       <c r="F37">
@@ -6074,10 +6071,10 @@
       <c r="C38" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>33.622952</v>
       </c>
       <c r="F38">
@@ -6097,10 +6094,10 @@
       <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>33.622952</v>
       </c>
       <c r="F39">
@@ -6120,10 +6117,10 @@
       <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>33.622952</v>
       </c>
       <c r="F40">
@@ -6143,10 +6140,10 @@
       <c r="C41" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>33.622952</v>
       </c>
       <c r="F41">
@@ -6166,10 +6163,10 @@
       <c r="C42" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>33.622952</v>
       </c>
       <c r="F42">
@@ -6189,10 +6186,10 @@
       <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>33.622952</v>
       </c>
       <c r="F43">
@@ -6212,10 +6209,10 @@
       <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>33.622952</v>
       </c>
       <c r="F44">
@@ -6235,14 +6232,1067 @@
       <c r="C45" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>69.190018</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>33.622952</v>
       </c>
       <c r="F45">
         <v>0.528530434302476</v>
+      </c>
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="11.7777777777778"/>
+    <col min="5" max="6" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>69.19077</v>
+      </c>
+      <c r="E2">
+        <v>33.49554</v>
+      </c>
+      <c r="F2">
+        <v>5.37745584439991</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3">
+        <v>69.19077</v>
+      </c>
+      <c r="E3">
+        <v>33.49554</v>
+      </c>
+      <c r="F3">
+        <v>5.36964507578786</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>69.19077</v>
+      </c>
+      <c r="E4">
+        <v>33.49554</v>
+      </c>
+      <c r="F4">
+        <v>5.35895326900239</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>69.19077</v>
+      </c>
+      <c r="E5">
+        <v>33.49554</v>
+      </c>
+      <c r="F5">
+        <v>5.33121969203691</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>69.19077</v>
+      </c>
+      <c r="E6">
+        <v>33.49554</v>
+      </c>
+      <c r="F6">
+        <v>5.31412994952893</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>69.19077</v>
+      </c>
+      <c r="E7">
+        <v>33.49554</v>
+      </c>
+      <c r="F7">
+        <v>5.27120118652315</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>69.19077</v>
+      </c>
+      <c r="E8">
+        <v>33.49554</v>
+      </c>
+      <c r="F8">
+        <v>5.00959643191706</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>69.19077</v>
+      </c>
+      <c r="E9">
+        <v>33.49554</v>
+      </c>
+      <c r="F9">
+        <v>5.13963715175461</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>69.19077</v>
+      </c>
+      <c r="E10">
+        <v>33.49554</v>
+      </c>
+      <c r="F10">
+        <v>5.16919266460931</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>69.19077</v>
+      </c>
+      <c r="E11">
+        <v>33.49554</v>
+      </c>
+      <c r="F11">
+        <v>5.27469094833891</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>69.19077</v>
+      </c>
+      <c r="E12">
+        <v>33.49554</v>
+      </c>
+      <c r="F12">
+        <v>5.28578867715638</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <v>69.19077</v>
+      </c>
+      <c r="E13">
+        <v>33.49554</v>
+      </c>
+      <c r="F13">
+        <v>4.25756931539784</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>69.19077</v>
+      </c>
+      <c r="E14">
+        <v>33.49554</v>
+      </c>
+      <c r="F14">
+        <v>4.25507820064882</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>69.19077</v>
+      </c>
+      <c r="E15">
+        <v>33.49554</v>
+      </c>
+      <c r="F15">
+        <v>4.25342435031775</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16">
+        <v>69.19077</v>
+      </c>
+      <c r="E16">
+        <v>33.49554</v>
+      </c>
+      <c r="F16">
+        <v>4.25580546683216</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <v>69.19077</v>
+      </c>
+      <c r="E17">
+        <v>33.49554</v>
+      </c>
+      <c r="F17">
+        <v>4.25146994312305</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18">
+        <v>69.19077</v>
+      </c>
+      <c r="E18">
+        <v>33.49554</v>
+      </c>
+      <c r="F18">
+        <v>4.2432548828041</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>69.19077</v>
+      </c>
+      <c r="E19">
+        <v>33.49554</v>
+      </c>
+      <c r="F19">
+        <v>4.23942471505859</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20">
+        <v>69.19077</v>
+      </c>
+      <c r="E20">
+        <v>33.49554</v>
+      </c>
+      <c r="F20">
+        <v>3.50469523927603</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <v>69.19077</v>
+      </c>
+      <c r="E21">
+        <v>33.49554</v>
+      </c>
+      <c r="F21">
+        <v>3.50364216855666</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>69.19077</v>
+      </c>
+      <c r="E22">
+        <v>33.49554</v>
+      </c>
+      <c r="F22">
+        <v>3.50223546121422</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>69.19077</v>
+      </c>
+      <c r="E23">
+        <v>33.49554</v>
+      </c>
+      <c r="F23">
+        <v>3.50304127641457</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24">
+        <v>69.19077</v>
+      </c>
+      <c r="E24">
+        <v>33.49554</v>
+      </c>
+      <c r="F24">
+        <v>3.50105935898688</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>69.19077</v>
+      </c>
+      <c r="E25">
+        <v>33.49554</v>
+      </c>
+      <c r="F25">
+        <v>3.49936169934597</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>69.19077</v>
+      </c>
+      <c r="E26">
+        <v>33.49554</v>
+      </c>
+      <c r="F26">
+        <v>3.26029048800299</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27">
+        <v>69.19077</v>
+      </c>
+      <c r="E27">
+        <v>33.49554</v>
+      </c>
+      <c r="F27">
+        <v>3.26106711970451</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28">
+        <v>69.19077</v>
+      </c>
+      <c r="E28">
+        <v>33.49554</v>
+      </c>
+      <c r="F28">
+        <v>3.26243162385655</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>69.19077</v>
+      </c>
+      <c r="E29">
+        <v>33.49554</v>
+      </c>
+      <c r="F29">
+        <v>3.2634037064374</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>69.19077</v>
+      </c>
+      <c r="E30">
+        <v>33.49554</v>
+      </c>
+      <c r="F30">
+        <v>3.27061390974891</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>69.19077</v>
+      </c>
+      <c r="E31">
+        <v>33.49554</v>
+      </c>
+      <c r="F31">
+        <v>3.26668954081546</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>69.19077</v>
+      </c>
+      <c r="E32">
+        <v>33.49554</v>
+      </c>
+      <c r="F32">
+        <v>5.48331310205788</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>69.19077</v>
+      </c>
+      <c r="E33">
+        <v>33.49554</v>
+      </c>
+      <c r="F33">
+        <v>5.19032246088706</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>69.19077</v>
+      </c>
+      <c r="E34">
+        <v>33.49554</v>
+      </c>
+      <c r="F34">
+        <v>5.18123111438092</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35">
+        <v>69.19077</v>
+      </c>
+      <c r="E35">
+        <v>33.49554</v>
+      </c>
+      <c r="F35">
+        <v>5.16594376224574</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36">
+        <v>69.19077</v>
+      </c>
+      <c r="E36">
+        <v>33.49554</v>
+      </c>
+      <c r="F36">
+        <v>5.14090337994719</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37">
+        <v>69.19077</v>
+      </c>
+      <c r="E37">
+        <v>33.49554</v>
+      </c>
+      <c r="F37">
+        <v>5.11455515563588</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38">
+        <v>69.19077</v>
+      </c>
+      <c r="E38">
+        <v>33.49554</v>
+      </c>
+      <c r="F38">
+        <v>5.1025330323121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>69.19077</v>
+      </c>
+      <c r="E39">
+        <v>33.49554</v>
+      </c>
+      <c r="F39">
+        <v>5.08934528436013</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40">
+        <v>69.19077</v>
+      </c>
+      <c r="E40">
+        <v>33.49554</v>
+      </c>
+      <c r="F40">
+        <v>4.66050850681044</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>69.19077</v>
+      </c>
+      <c r="E41">
+        <v>33.49554</v>
+      </c>
+      <c r="F41">
+        <v>4.75250151352272</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>69.19077</v>
+      </c>
+      <c r="E42">
+        <v>33.49554</v>
+      </c>
+      <c r="F42">
+        <v>4.89831947382201</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>69.19077</v>
+      </c>
+      <c r="E43">
+        <v>33.49554</v>
+      </c>
+      <c r="F43">
+        <v>4.94051150965134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>69.19077</v>
+      </c>
+      <c r="E44">
+        <v>33.49554</v>
+      </c>
+      <c r="F44">
+        <v>4.96397351232135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>69.19077</v>
+      </c>
+      <c r="E45">
+        <v>33.49554</v>
+      </c>
+      <c r="F45">
+        <v>5.16919266460931</v>
       </c>
       <c r="G45" t="s">
         <v>89</v>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Z$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -315,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
@@ -1568,11 +1581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3108,7 +3121,7 @@
         <v>0.295254302</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:26">
+    <row r="20" spans="1:26">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:26">
+    <row r="21" spans="1:26">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:26">
+    <row r="22" spans="1:26">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>0.44769209</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:26">
+    <row r="23" spans="1:26">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
@@ -3428,7 +3441,7 @@
         <v>0.536048456</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:26">
+    <row r="24" spans="1:26">
       <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
@@ -3508,7 +3521,7 @@
         <v>0.668187772</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:26">
+    <row r="25" spans="1:26">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -4148,7 +4161,7 @@
         <v>0.49396581</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:26">
+    <row r="33" spans="1:26">
       <c r="A33" s="7" t="s">
         <v>75</v>
       </c>
@@ -4228,7 +4241,7 @@
         <v>0.574442517</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:26">
+    <row r="34" spans="1:26">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4308,7 +4321,7 @@
         <v>0.299852571</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:26">
+    <row r="35" spans="1:26">
       <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
@@ -4388,7 +4401,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:26">
+    <row r="36" spans="1:26">
       <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
@@ -4468,7 +4481,7 @@
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:26">
+    <row r="37" spans="1:26">
       <c r="A37" s="7" t="s">
         <v>80</v>
       </c>
@@ -4548,7 +4561,7 @@
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:26">
+    <row r="38" spans="1:26">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -4628,7 +4641,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:26">
+    <row r="39" spans="1:26">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
@@ -4708,7 +4721,7 @@
         <v>0.104331223</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:26">
+    <row r="40" spans="1:26">
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
@@ -4788,7 +4801,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:26">
+    <row r="41" spans="1:26">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -4868,7 +4881,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:26">
+    <row r="42" spans="1:26">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
@@ -4948,7 +4961,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:26">
+    <row r="43" spans="1:26">
       <c r="A43" s="7" t="s">
         <v>87</v>
       </c>
@@ -5028,7 +5041,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:26">
+    <row r="44" spans="1:26">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
@@ -5108,7 +5121,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:26">
+    <row r="45" spans="1:26">
       <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
@@ -5190,11 +5203,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z45">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="2009"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
@@ -1581,11 +1581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1681,7 +1681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" hidden="1" spans="1:26">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0.592183685</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" hidden="1" spans="1:26">
       <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0.592183685</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" hidden="1" spans="1:26">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0.397884934</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" hidden="1" spans="1:26">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0.334395307</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" hidden="1" spans="1:26">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0.239659817</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" hidden="1" spans="1:26">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0.325508296</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" hidden="1" spans="1:26">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" hidden="1" spans="1:26">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" hidden="1" spans="1:26">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0.180959667</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" hidden="1" spans="1:26">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0.10724674</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" hidden="1" spans="1:26">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>0.109705774</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" hidden="1" spans="1:26">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0.731058579</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" hidden="1" spans="1:26">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0.547227216</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" hidden="1" spans="1:26">
       <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.412450051</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" hidden="1" spans="1:26">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>50</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="V17" s="7">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>0.295254302</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" hidden="1" spans="1:26">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" hidden="1" spans="1:26">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" hidden="1" spans="1:26">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>0.44769209</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" hidden="1" spans="1:26">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>61</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="V24" s="7">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>61</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="V25" s="7">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>0.342989537</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" hidden="1" spans="1:26">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.492188136</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" hidden="1" spans="1:26">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0.446261</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" hidden="1" spans="1:26">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0.375528476</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" hidden="1" spans="1:26">
       <c r="A29" s="7" t="s">
         <v>70</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>61</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="V30" s="7">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>61</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="V31" s="7">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>0.316320844</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" hidden="1" spans="1:26">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0.49396581</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" hidden="1" spans="1:26">
       <c r="A33" s="7" t="s">
         <v>75</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0.574442517</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" hidden="1" spans="1:26">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0.299852571</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" hidden="1" spans="1:26">
       <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" hidden="1" spans="1:26">
       <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" hidden="1" spans="1:26">
       <c r="A37" s="7" t="s">
         <v>80</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" hidden="1" spans="1:26">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" hidden="1" spans="1:26">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0.104331223</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" hidden="1" spans="1:26">
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" hidden="1" spans="1:26">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" hidden="1" spans="1:26">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" hidden="1" spans="1:26">
       <c r="A43" s="7" t="s">
         <v>87</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" hidden="1" spans="1:26">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" hidden="1" spans="1:26">
       <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
@@ -5203,6 +5203,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z45">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="1"/>
+        <filter val="0,5"/>
+        <filter val="1,5"/>
+        <filter val="-0,5"/>
+        <filter val="-1,5"/>
+        <filter val="-3,5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2001,7 +2001,7 @@
         <v>0.334395307</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:26">
+    <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0.180959667</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:26">
+    <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0.10724674</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:26">
+    <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:26">
+    <row r="37" spans="1:26">
       <c r="A37" s="7" t="s">
         <v>80</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.373320019</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:26">
+    <row r="38" spans="1:26">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:26">
+    <row r="39" spans="1:26">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:26">
+    <row r="43" spans="1:26">
       <c r="A43" s="7" t="s">
         <v>87</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:26">
+    <row r="44" spans="1:26">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
@@ -5205,17 +5205,9 @@
   <autoFilter ref="A1:Z45">
     <filterColumn colId="16">
       <filters>
-        <filter val="1"/>
-        <filter val="0,5"/>
-        <filter val="1,5"/>
         <filter val="-0,5"/>
         <filter val="-1,5"/>
         <filter val="-3,5"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="21">
-      <filters>
-        <filter val="1"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/R_calc_dustred_2020/data/TuMyt_2009_2010_for_SDM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1581,11 +1581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1681,7 +1681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:26">
+    <row r="2" spans="1:26">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0.592183685</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:26">
+    <row r="3" spans="1:26">
       <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0.592183685</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:26">
+    <row r="4" spans="1:26">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0.397884934</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:26">
+    <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0.239659817</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:26">
+    <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0.325508296</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:26">
+    <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:26">
+    <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0.306826051</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:26">
+    <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>0.109705774</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:26">
+    <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0.731058579</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:26">
+    <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0.547227216</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:26">
+    <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.412450051</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:26">
+    <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0.295254302</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:26">
+    <row r="20" spans="1:26">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:26">
+    <row r="21" spans="1:26">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0.584190523</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:26">
+    <row r="22" spans="1:26">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>0.44769209</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:26">
+    <row r="23" spans="1:26">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0.342989537</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:26">
+    <row r="26" spans="1:26">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.492188136</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:26">
+    <row r="27" spans="1:26">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0.446261</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:26">
+    <row r="28" spans="1:26">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0.375528476</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:26">
+    <row r="29" spans="1:26">
       <c r="A29" s="7" t="s">
         <v>70</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0.316320844</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:26">
+    <row r="32" spans="1:26">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0.49396581</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:26">
+    <row r="33" spans="1:26">
       <c r="A33" s="7" t="s">
         <v>75</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0.574442517</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:26">
+    <row r="34" spans="1:26">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0.299852571</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:26">
+    <row r="35" spans="1:26">
       <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:26">
+    <row r="36" spans="1:26">
       <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0.104331223</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:26">
+    <row r="40" spans="1:26">
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:26">
+    <row r="41" spans="1:26">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.61585702</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:26">
+    <row r="42" spans="1:26">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:26">
+    <row r="45" spans="1:26">
       <c r="A45" s="7" t="s">
         <v>89</v>
       </c>
@@ -5202,14 +5202,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z45">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="-0,5"/>
-        <filter val="-1,5"/>
-        <filter val="-3,5"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:Z45" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
